--- a/src/hw2/Q5.xlsx
+++ b/src/hw2/Q5.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khandaa\Documents\CS522\TwitterAPI\trunk\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\985892\Documents\NetBeansProjects\CS522TwitterAPI\trunk\src\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="July25" sheetId="1" r:id="rId1"/>
-    <sheet name="Ass2-Q3" sheetId="2" r:id="rId2"/>
+    <sheet name="July26" sheetId="3" r:id="rId2"/>
+    <sheet name="Ass2-Q3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -963,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,6 +3317,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
